--- a/RECURSOS/Hallazgos Pos-Despliegue/flujo pic.xlsx
+++ b/RECURSOS/Hallazgos Pos-Despliegue/flujo pic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sispla\RECURSOS\Hallazgos Pos-Despliegue\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42EF76E-0D88-44B9-8F10-B40FE23A1227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF3309E-A04F-4547-880D-6001B5A1B870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2583B48C-DC56-4DE8-A3C6-531F45D33AAD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>Medio</t>
   </si>
@@ -112,6 +112,27 @@
   </si>
   <si>
     <t>Al dar click "enter", no deberia de ingresar input</t>
+  </si>
+  <si>
+    <t>ingresar variables de auditoria</t>
+  </si>
+  <si>
+    <t>No se registra el usuario ni hora de ingreso</t>
+  </si>
+  <si>
+    <t>Revisar que los archivos null</t>
+  </si>
+  <si>
+    <t>Archivos null</t>
+  </si>
+  <si>
+    <t>Se deberá de guardar la pista de auditoria para las tablas centrales</t>
+  </si>
+  <si>
+    <t>se deberá de guarda datos N/A en ves de null</t>
+  </si>
+  <si>
+    <t>ver archivo interes info</t>
   </si>
 </sst>
 </file>
@@ -585,7 +606,7 @@
   <dimension ref="A2:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -739,33 +760,59 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
